--- a/Examples/kotas/kotas_model.xlsx
+++ b/Examples/kotas/kotas_model.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Master Eficiencia Energética/Master 2024/Trabajos/Grupo5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\kotas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{ED5FD6D2-1903-4C2A-A178-6F97BF4D1B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAAA1E14-9094-4F18-B52E-DA746C0C7358}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD5C19-CAC9-4113-9E10-8A543DE3EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="3285" windowWidth="19980" windowHeight="12525" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
     <sheet name="Validate" sheetId="9" r:id="rId2"/>
     <sheet name="Flows" sheetId="1" r:id="rId3"/>
     <sheet name="Processes" sheetId="2" r:id="rId4"/>
-    <sheet name="Exergy" sheetId="17" r:id="rId5"/>
+    <sheet name="Exergy" sheetId="20" r:id="rId5"/>
     <sheet name="Format" sheetId="6" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="8" r:id="rId7"/>
-    <sheet name="Exergy_Simulation" sheetId="11" r:id="rId8"/>
-    <sheet name="Exergy_Table" sheetId="10" r:id="rId9"/>
-    <sheet name="ExergyH" sheetId="12" r:id="rId10"/>
+    <sheet name="Exergy_Boiler" sheetId="11" r:id="rId8"/>
+    <sheet name="Exergy_HRSG" sheetId="12" r:id="rId9"/>
+    <sheet name="ExergyB_Table" sheetId="18" r:id="rId10"/>
     <sheet name="ExergyH_Table" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$5</definedName>
     <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$5</definedName>
-    <definedName name="cgam_sample" localSheetId="7">Exergy_Simulation!$A$1:$C$7</definedName>
+    <definedName name="cgam_sample" localSheetId="7">Exergy_Boiler!$A$1:$C$7</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
   <si>
     <t>key</t>
   </si>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>MCG8</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>M02</t>
   </si>
 </sst>
 </file>
@@ -826,408 +850,513 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D378CF-0D39-40B6-B8E2-446213EC00FD}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DFA131-8F1C-4C88-A2F7-57D51FB769D6}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>Flows!A2</f>
+        <v>B1</v>
       </c>
       <c r="B2">
-        <v>23312</v>
+        <v>23306</v>
       </c>
       <c r="C2">
-        <v>23672</v>
+        <v>22249</v>
       </c>
       <c r="D2">
-        <v>14645</v>
+        <v>21192</v>
       </c>
       <c r="E2">
-        <v>18024</v>
+        <v>20136</v>
       </c>
       <c r="F2">
-        <v>23388</v>
+        <v>19079</v>
       </c>
       <c r="G2">
-        <v>23437</v>
+        <v>18022</v>
       </c>
       <c r="H2">
-        <v>23841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
+        <v>16966</v>
+      </c>
+      <c r="I2">
+        <v>15909</v>
+      </c>
+      <c r="J2">
+        <v>14853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Flows!A3</f>
+        <v>B2</v>
       </c>
       <c r="B3">
-        <v>11272</v>
+        <v>11265</v>
       </c>
       <c r="C3">
-        <v>11270</v>
+        <v>10139</v>
       </c>
       <c r="D3">
-        <v>2017</v>
+        <v>9012</v>
       </c>
       <c r="E3">
-        <v>5636</v>
+        <v>7886</v>
       </c>
       <c r="F3">
-        <v>11280</v>
+        <v>6759</v>
       </c>
       <c r="G3">
-        <v>11272</v>
+        <v>5633</v>
       </c>
       <c r="H3">
-        <v>11836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
+        <v>4506</v>
+      </c>
+      <c r="I3">
+        <v>3380</v>
+      </c>
+      <c r="J3">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Flows!A4</f>
+        <v>B3</v>
       </c>
       <c r="B4">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="C4">
-        <v>3375</v>
+        <v>3514</v>
       </c>
       <c r="D4">
-        <v>6969</v>
+        <v>3992</v>
       </c>
       <c r="E4">
-        <v>5424</v>
+        <v>4470</v>
       </c>
       <c r="F4">
-        <v>4388</v>
+        <v>4948</v>
       </c>
       <c r="G4">
-        <v>3109</v>
+        <v>5426</v>
       </c>
       <c r="H4">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
+        <v>5904</v>
+      </c>
+      <c r="I4">
+        <v>6382</v>
+      </c>
+      <c r="J4">
+        <v>6861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Flows!A5</f>
+        <v>B4</v>
       </c>
       <c r="B5">
-        <v>373.7</v>
+        <v>373.9</v>
       </c>
       <c r="C5">
-        <v>419.6</v>
+        <v>432.8</v>
       </c>
       <c r="D5">
-        <v>858.7</v>
+        <v>491.7</v>
       </c>
       <c r="E5">
-        <v>668.4</v>
+        <v>550.5</v>
       </c>
       <c r="F5">
-        <v>533.1</v>
+        <v>609.4</v>
       </c>
       <c r="G5">
-        <v>505.6</v>
+        <v>668.3</v>
       </c>
       <c r="H5">
-        <v>344.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
+        <v>727.2</v>
+      </c>
+      <c r="I5">
+        <v>786.1</v>
+      </c>
+      <c r="J5">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Flows!A6</f>
+        <v>B5</v>
       </c>
       <c r="B6">
-        <v>5.84</v>
+        <v>5.8330000000000002</v>
       </c>
       <c r="C6">
-        <v>6.4459999999999997</v>
+        <v>6.7510000000000003</v>
       </c>
       <c r="D6">
-        <v>13.42</v>
+        <v>7.67</v>
       </c>
       <c r="E6">
-        <v>10.44</v>
+        <v>8.5879999999999992</v>
       </c>
       <c r="F6">
-        <v>8.1</v>
+        <v>9.5069999999999997</v>
       </c>
       <c r="G6">
-        <v>10.74</v>
+        <v>10.43</v>
       </c>
       <c r="H6">
-        <v>5.3789999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
+        <v>11.34</v>
+      </c>
+      <c r="I6">
+        <v>12.26</v>
+      </c>
+      <c r="J6">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Flows!A7</f>
+        <v>B6</v>
       </c>
       <c r="B7">
-        <v>9.266</v>
+        <v>9.2929999999999993</v>
       </c>
       <c r="C7">
-        <v>10.23</v>
+        <v>10.76</v>
       </c>
       <c r="D7">
-        <v>21.29</v>
+        <v>12.22</v>
       </c>
       <c r="E7">
-        <v>16.57</v>
+        <v>13.68</v>
       </c>
       <c r="F7">
-        <v>12.85</v>
+        <v>15.15</v>
       </c>
       <c r="G7">
-        <v>14.25</v>
+        <v>16.61</v>
       </c>
       <c r="H7">
-        <v>8.5359999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
+        <v>18.07</v>
+      </c>
+      <c r="I7">
+        <v>19.54</v>
+      </c>
+      <c r="J7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Flows!A8</f>
+        <v>B7</v>
       </c>
       <c r="B8">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="C8">
-        <v>1752</v>
+        <v>1587</v>
       </c>
       <c r="D8">
-        <v>2017</v>
+        <v>1411</v>
       </c>
       <c r="E8">
-        <v>883.3</v>
+        <v>1234</v>
       </c>
       <c r="F8">
-        <v>1695</v>
+        <v>1058</v>
       </c>
       <c r="G8">
-        <v>1767</v>
+        <v>881.7</v>
       </c>
       <c r="H8">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
+        <v>705.4</v>
+      </c>
+      <c r="I8">
+        <v>529</v>
+      </c>
+      <c r="J8">
+        <v>352.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Flows!A9</f>
+        <v>B8</v>
       </c>
       <c r="B9">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C9">
-        <v>1518</v>
+        <v>1349</v>
       </c>
       <c r="D9">
-        <v>1408</v>
+        <v>1156</v>
       </c>
       <c r="E9">
-        <v>619.4</v>
+        <v>968.7</v>
       </c>
       <c r="F9">
-        <v>1417</v>
+        <v>788.9</v>
       </c>
       <c r="G9">
-        <v>1570</v>
+        <v>618.29999999999995</v>
       </c>
       <c r="H9">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
+        <v>459.1</v>
+      </c>
+      <c r="I9">
+        <v>314.39999999999998</v>
+      </c>
+      <c r="J9">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Flows!A10</f>
+        <v>B9</v>
       </c>
       <c r="B10">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C10">
-        <v>1687</v>
+        <v>1507</v>
       </c>
       <c r="D10">
-        <v>1518</v>
+        <v>1305</v>
       </c>
       <c r="E10">
-        <v>742.3</v>
+        <v>1109</v>
       </c>
       <c r="F10">
-        <v>1513</v>
+        <v>920.4</v>
       </c>
       <c r="G10">
-        <v>1738</v>
+        <v>741.1</v>
       </c>
       <c r="H10">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
+        <v>573.29999999999995</v>
+      </c>
+      <c r="I10">
+        <v>420.1</v>
+      </c>
+      <c r="J10">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Flows!A11</f>
+        <v>QH</v>
       </c>
       <c r="B11">
-        <v>24531</v>
+        <v>51871</v>
       </c>
       <c r="C11">
-        <v>24983</v>
+        <v>50018</v>
       </c>
       <c r="D11">
-        <v>14873</v>
+        <v>48166</v>
       </c>
       <c r="E11">
-        <v>19778</v>
+        <v>46314</v>
       </c>
       <c r="F11">
-        <v>25870</v>
+        <v>44462</v>
       </c>
       <c r="G11">
-        <v>24647</v>
+        <v>42610</v>
       </c>
       <c r="H11">
-        <v>25002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
+        <v>40758</v>
+      </c>
+      <c r="I11">
+        <v>38907</v>
+      </c>
+      <c r="J11">
+        <v>37056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Flows!A12</f>
+        <v>WT1</v>
       </c>
       <c r="B12">
-        <v>8119</v>
+        <v>8118</v>
       </c>
       <c r="C12">
-        <v>7954</v>
+        <v>7749</v>
       </c>
       <c r="D12">
-        <v>5101</v>
+        <v>7381</v>
       </c>
       <c r="E12">
-        <v>6278</v>
+        <v>7013</v>
       </c>
       <c r="F12">
-        <v>7016</v>
+        <v>6645</v>
       </c>
       <c r="G12">
-        <v>8163</v>
+        <v>6277</v>
       </c>
       <c r="H12">
-        <v>8303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>64</v>
+        <v>5909</v>
+      </c>
+      <c r="I12">
+        <v>5541</v>
+      </c>
+      <c r="J12">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>Flows!A13</f>
+        <v>WT2</v>
       </c>
       <c r="B13">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="C13">
-        <v>2447</v>
+        <v>2639</v>
       </c>
       <c r="D13">
-        <v>5235</v>
+        <v>2998</v>
       </c>
       <c r="E13">
-        <v>4074</v>
+        <v>3358</v>
       </c>
       <c r="F13">
-        <v>3303</v>
+        <v>3717</v>
       </c>
       <c r="G13">
-        <v>2236</v>
+        <v>4076</v>
       </c>
       <c r="H13">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
+        <v>4435</v>
+      </c>
+      <c r="I13">
+        <v>4794</v>
+      </c>
+      <c r="J13">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>Flows!A14</f>
+        <v>WPC</v>
       </c>
       <c r="B14">
-        <v>3.4260000000000002</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="C14">
-        <v>3.782</v>
+        <v>4.6680000000000001</v>
       </c>
       <c r="D14">
-        <v>7.8719999999999999</v>
+        <v>5.3029999999999999</v>
       </c>
       <c r="E14">
-        <v>6.1269999999999998</v>
+        <v>5.9379999999999997</v>
       </c>
       <c r="F14">
-        <v>4.75</v>
+        <v>6.5739999999999998</v>
       </c>
       <c r="G14">
-        <v>3.512</v>
+        <v>7.2089999999999996</v>
       </c>
       <c r="H14">
-        <v>3.1560000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
+        <v>7.8440000000000003</v>
+      </c>
+      <c r="I14">
+        <v>8.48</v>
+      </c>
+      <c r="J14">
+        <v>9.1150000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Flows!A15</f>
+        <v>WPA</v>
       </c>
       <c r="B15">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="C15">
-        <v>188.5</v>
+        <v>176.4</v>
       </c>
       <c r="D15">
-        <v>120.8</v>
+        <v>166.9</v>
       </c>
       <c r="E15">
-        <v>138.80000000000001</v>
+        <v>157.4</v>
       </c>
       <c r="F15">
-        <v>107.6</v>
+        <v>148</v>
       </c>
       <c r="G15">
-        <v>187.2</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="H15">
-        <v>190.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
+        <v>129.5</v>
+      </c>
+      <c r="I15">
+        <v>120.3</v>
+      </c>
+      <c r="J15">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>Flows!A16</f>
+        <v>WN</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -1250,57 +1379,77 @@
       <c r="H16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
+      <c r="I16">
+        <v>10000</v>
+      </c>
+      <c r="J16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>Flows!A17</f>
+        <v>QEVP</v>
       </c>
       <c r="B17">
-        <v>8180</v>
+        <v>8177</v>
       </c>
       <c r="C17">
-        <v>8180</v>
+        <v>7359</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>6541</v>
       </c>
       <c r="E17">
-        <v>4090</v>
+        <v>5724</v>
       </c>
       <c r="F17">
-        <v>8180</v>
+        <v>4906</v>
       </c>
       <c r="G17">
-        <v>8180</v>
+        <v>4088</v>
       </c>
       <c r="H17">
-        <v>8589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
+        <v>3271</v>
+      </c>
+      <c r="I17">
+        <v>2453</v>
+      </c>
+      <c r="J17">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>Flows!A18</f>
+        <v>QCND</v>
       </c>
       <c r="B18">
-        <v>367.9</v>
+        <v>368.1</v>
       </c>
       <c r="C18">
-        <v>413.1</v>
+        <v>426</v>
       </c>
       <c r="D18">
-        <v>845.3</v>
+        <v>484</v>
       </c>
       <c r="E18">
+        <v>541.9</v>
+      </c>
+      <c r="F18">
+        <v>599.9</v>
+      </c>
+      <c r="G18">
         <v>657.9</v>
       </c>
-      <c r="F18">
-        <v>525</v>
-      </c>
-      <c r="G18">
-        <v>494.9</v>
-      </c>
       <c r="H18">
-        <v>338.9</v>
+        <v>715.9</v>
+      </c>
+      <c r="I18">
+        <v>773.9</v>
+      </c>
+      <c r="J18">
+        <v>831.9</v>
       </c>
     </row>
   </sheetData>
@@ -2284,7 +2433,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2456,769 +2605,615 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE6AFC-0439-4BDC-A701-9A845021953F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46056CB-913F-47C0-A56C-44196B879F24}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B18" sqref="B18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>Exergy_Simulation!A1</f>
-        <v>key</v>
-      </c>
-      <c r="B1" t="str">
-        <f>Exergy_Simulation!B1</f>
-        <v>REF</v>
-      </c>
-      <c r="C1" t="str">
-        <f>Exergy_Simulation!C1</f>
-        <v>ETA82</v>
-      </c>
-      <c r="D1" t="str">
-        <f>Exergy_Simulation!D1</f>
-        <v>ETB82</v>
-      </c>
-      <c r="E1" t="str">
-        <f>Exergy_Simulation!E1</f>
-        <v>ET82</v>
-      </c>
-      <c r="F1" t="str">
-        <f>Exergy_Simulation!F1</f>
-        <v>TPV6</v>
-      </c>
-      <c r="G1" t="str">
-        <f>Exergy_Simulation!G1</f>
-        <v>PCND8</v>
-      </c>
-      <c r="H1" t="str">
-        <f>Exergy_Simulation!H1</f>
-        <v>PCG5</v>
-      </c>
-      <c r="I1" t="str">
-        <f>Exergy_Simulation!I1</f>
-        <v>MCG8</v>
-      </c>
-      <c r="J1" t="str">
-        <f>Exergy_Simulation!J1</f>
-        <v>NoCOG</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>Exergy_Simulation!A2</f>
+        <f>Flows!A2</f>
         <v>B1</v>
       </c>
       <c r="B2">
-        <f>Exergy_Simulation!B2</f>
-        <v>23312</v>
+        <v>23306</v>
       </c>
       <c r="C2">
-        <f>Exergy_Simulation!C2</f>
-        <v>23559</v>
+        <v>22249</v>
       </c>
       <c r="D2">
-        <f>Exergy_Simulation!D2</f>
-        <v>23415</v>
+        <v>21192</v>
       </c>
       <c r="E2">
-        <f>Exergy_Simulation!E2</f>
-        <v>23672</v>
+        <v>20136</v>
       </c>
       <c r="F2">
-        <f>Exergy_Simulation!F2</f>
-        <v>23538</v>
+        <v>19079</v>
       </c>
       <c r="G2">
-        <f>Exergy_Simulation!G2</f>
-        <v>23437</v>
+        <v>18022</v>
       </c>
       <c r="H2">
-        <f>Exergy_Simulation!H2</f>
-        <v>23303</v>
+        <v>16966</v>
       </c>
       <c r="I2">
-        <f>Exergy_Simulation!I2</f>
-        <v>21198</v>
+        <v>15909</v>
       </c>
       <c r="J2">
-        <f>Exergy_Simulation!J2</f>
-        <v>14645</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>Exergy_Simulation!A3</f>
+        <f>Flows!A3</f>
         <v>B2</v>
       </c>
       <c r="B3">
-        <f>Exergy_Simulation!B3</f>
-        <v>11272</v>
+        <v>11265</v>
       </c>
       <c r="C3">
-        <f>Exergy_Simulation!C3</f>
-        <v>11270</v>
+        <v>10139</v>
       </c>
       <c r="D3">
-        <f>Exergy_Simulation!D3</f>
-        <v>11272</v>
+        <v>9012</v>
       </c>
       <c r="E3">
-        <f>Exergy_Simulation!E3</f>
-        <v>11270</v>
+        <v>7886</v>
       </c>
       <c r="F3">
-        <f>Exergy_Simulation!F3</f>
-        <v>11280</v>
+        <v>6759</v>
       </c>
       <c r="G3">
-        <f>Exergy_Simulation!G3</f>
-        <v>11272</v>
+        <v>5633</v>
       </c>
       <c r="H3">
-        <f>Exergy_Simulation!H3</f>
-        <v>11261</v>
+        <v>4506</v>
       </c>
       <c r="I3">
-        <f>Exergy_Simulation!I3</f>
-        <v>9018</v>
+        <v>3380</v>
       </c>
       <c r="J3">
-        <f>Exergy_Simulation!J3</f>
-        <v>2018</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>Exergy_Simulation!A4</f>
+        <f>Flows!A4</f>
         <v>B3</v>
       </c>
       <c r="B4">
-        <f>Exergy_Simulation!B4</f>
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="C4">
-        <f>Exergy_Simulation!C4</f>
-        <v>3305</v>
+        <v>3514</v>
       </c>
       <c r="D4">
-        <f>Exergy_Simulation!D4</f>
-        <v>3096</v>
+        <v>3992</v>
       </c>
       <c r="E4">
-        <f>Exergy_Simulation!E4</f>
-        <v>3375</v>
+        <v>4470</v>
       </c>
       <c r="F4">
-        <f>Exergy_Simulation!F4</f>
-        <v>4488</v>
+        <v>4948</v>
       </c>
       <c r="G4">
-        <f>Exergy_Simulation!G4</f>
-        <v>3109</v>
+        <v>5426</v>
       </c>
       <c r="H4">
-        <f>Exergy_Simulation!H4</f>
-        <v>3038</v>
+        <v>5904</v>
       </c>
       <c r="I4">
-        <f>Exergy_Simulation!I4</f>
-        <v>3990</v>
+        <v>6382</v>
       </c>
       <c r="J4">
-        <f>Exergy_Simulation!J4</f>
-        <v>6969</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>Exergy_Simulation!A5</f>
+        <f>Flows!A5</f>
         <v>B4</v>
       </c>
       <c r="B5">
-        <f>Exergy_Simulation!B5</f>
-        <v>373.7</v>
+        <v>373.9</v>
       </c>
       <c r="C5">
-        <f>Exergy_Simulation!C5</f>
-        <v>406.3</v>
+        <v>432.8</v>
       </c>
       <c r="D5">
-        <f>Exergy_Simulation!D5</f>
-        <v>385.8</v>
+        <v>491.7</v>
       </c>
       <c r="E5">
-        <f>Exergy_Simulation!E5</f>
-        <v>419.6</v>
+        <v>550.5</v>
       </c>
       <c r="F5">
-        <f>Exergy_Simulation!F5</f>
-        <v>551.5</v>
+        <v>609.4</v>
       </c>
       <c r="G5">
-        <f>Exergy_Simulation!G5</f>
-        <v>505.6</v>
+        <v>668.3</v>
       </c>
       <c r="H5">
-        <f>Exergy_Simulation!H5</f>
-        <v>374.4</v>
+        <v>727.2</v>
       </c>
       <c r="I5">
-        <f>Exergy_Simulation!I5</f>
-        <v>491.7</v>
+        <v>786.1</v>
       </c>
       <c r="J5">
-        <f>Exergy_Simulation!J5</f>
-        <v>858.7</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>Exergy_Simulation!A6</f>
+        <f>Flows!A6</f>
         <v>B5</v>
       </c>
       <c r="B6">
-        <f>Exergy_Simulation!B6</f>
-        <v>5.84</v>
+        <v>5.8330000000000002</v>
       </c>
       <c r="C6">
-        <f>Exergy_Simulation!C6</f>
-        <v>6.3129999999999997</v>
+        <v>6.7510000000000003</v>
       </c>
       <c r="D6">
-        <f>Exergy_Simulation!D6</f>
-        <v>5.9610000000000003</v>
+        <v>7.67</v>
       </c>
       <c r="E6">
-        <f>Exergy_Simulation!E6</f>
-        <v>6.4459999999999997</v>
+        <v>8.5879999999999992</v>
       </c>
       <c r="F6">
-        <f>Exergy_Simulation!F6</f>
-        <v>8.2840000000000007</v>
+        <v>9.5069999999999997</v>
       </c>
       <c r="G6">
-        <f>Exergy_Simulation!G6</f>
-        <v>10.74</v>
+        <v>10.43</v>
       </c>
       <c r="H6">
-        <f>Exergy_Simulation!H6</f>
-        <v>5.85</v>
+        <v>11.34</v>
       </c>
       <c r="I6">
-        <f>Exergy_Simulation!I6</f>
-        <v>7.6820000000000004</v>
+        <v>12.26</v>
       </c>
       <c r="J6">
-        <f>Exergy_Simulation!J6</f>
-        <v>13.42</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Exergy_Simulation!A7</f>
+        <f>Flows!A7</f>
         <v>B6</v>
       </c>
       <c r="B7">
-        <f>Exergy_Simulation!B7</f>
-        <v>9.266</v>
+        <v>9.2929999999999993</v>
       </c>
       <c r="C7">
-        <f>Exergy_Simulation!C7</f>
-        <v>10.02</v>
+        <v>10.76</v>
       </c>
       <c r="D7">
-        <f>Exergy_Simulation!D7</f>
-        <v>9.4580000000000002</v>
+        <v>12.22</v>
       </c>
       <c r="E7">
-        <f>Exergy_Simulation!E7</f>
-        <v>10.23</v>
+        <v>13.68</v>
       </c>
       <c r="F7">
-        <f>Exergy_Simulation!F7</f>
-        <v>13.14</v>
+        <v>15.15</v>
       </c>
       <c r="G7">
-        <f>Exergy_Simulation!G7</f>
-        <v>14.25</v>
+        <v>16.61</v>
       </c>
       <c r="H7">
-        <f>Exergy_Simulation!H7</f>
-        <v>9.3130000000000006</v>
+        <v>18.07</v>
       </c>
       <c r="I7">
-        <f>Exergy_Simulation!I7</f>
-        <v>12.23</v>
+        <v>19.54</v>
       </c>
       <c r="J7">
-        <f>Exergy_Simulation!J7</f>
-        <v>21.29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Exergy_Simulation!A8</f>
+        <f>Flows!A8</f>
         <v>B7</v>
       </c>
       <c r="B8">
-        <f>Exergy_Simulation!B8</f>
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="C8">
-        <f>Exergy_Simulation!C8</f>
-        <v>1752</v>
+        <v>1587</v>
       </c>
       <c r="D8">
-        <f>Exergy_Simulation!D8</f>
-        <v>1767</v>
+        <v>1411</v>
       </c>
       <c r="E8">
-        <f>Exergy_Simulation!E8</f>
-        <v>1752</v>
+        <v>1234</v>
       </c>
       <c r="F8">
-        <f>Exergy_Simulation!F8</f>
-        <v>1695</v>
+        <v>1058</v>
       </c>
       <c r="G8">
-        <f>Exergy_Simulation!G8</f>
-        <v>1767</v>
+        <v>881.7</v>
       </c>
       <c r="H8">
-        <f>Exergy_Simulation!H8</f>
-        <v>1765</v>
+        <v>705.4</v>
       </c>
       <c r="I8">
-        <f>Exergy_Simulation!I8</f>
-        <v>1413</v>
+        <v>529</v>
       </c>
       <c r="J8">
-        <f>Exergy_Simulation!J8</f>
-        <v>2017</v>
+        <v>352.7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Exergy_Simulation!A9</f>
+        <f>Flows!A9</f>
         <v>B8</v>
       </c>
       <c r="B9">
-        <f>Exergy_Simulation!B9</f>
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C9">
-        <f>Exergy_Simulation!C9</f>
-        <v>1522</v>
+        <v>1349</v>
       </c>
       <c r="D9">
-        <f>Exergy_Simulation!D9</f>
-        <v>1547</v>
+        <v>1156</v>
       </c>
       <c r="E9">
-        <f>Exergy_Simulation!E9</f>
-        <v>1518</v>
+        <v>968.7</v>
       </c>
       <c r="F9">
-        <f>Exergy_Simulation!F9</f>
-        <v>1412</v>
+        <v>788.9</v>
       </c>
       <c r="G9">
-        <f>Exergy_Simulation!G9</f>
-        <v>1570</v>
+        <v>618.29999999999995</v>
       </c>
       <c r="H9">
-        <f>Exergy_Simulation!H9</f>
-        <v>1548</v>
+        <v>459.1</v>
       </c>
       <c r="I9">
-        <f>Exergy_Simulation!I9</f>
-        <v>1158</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="J9">
-        <f>Exergy_Simulation!J9</f>
-        <v>1408</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Exergy_Simulation!A10</f>
+        <f>Flows!A10</f>
         <v>B9</v>
       </c>
       <c r="B10">
-        <f>Exergy_Simulation!B10</f>
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C10">
-        <f>Exergy_Simulation!C10</f>
-        <v>1690</v>
+        <v>1507</v>
       </c>
       <c r="D10">
-        <f>Exergy_Simulation!D10</f>
-        <v>1714</v>
+        <v>1305</v>
       </c>
       <c r="E10">
-        <f>Exergy_Simulation!E10</f>
-        <v>1687</v>
+        <v>1109</v>
       </c>
       <c r="F10">
-        <f>Exergy_Simulation!F10</f>
-        <v>1509</v>
+        <v>920.4</v>
       </c>
       <c r="G10">
-        <f>Exergy_Simulation!G10</f>
-        <v>1738</v>
+        <v>741.1</v>
       </c>
       <c r="H10">
-        <f>Exergy_Simulation!H10</f>
-        <v>1715</v>
+        <v>573.29999999999995</v>
       </c>
       <c r="I10">
-        <f>Exergy_Simulation!I10</f>
-        <v>1307</v>
+        <v>420.1</v>
       </c>
       <c r="J10">
-        <f>Exergy_Simulation!J10</f>
-        <v>1518</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>Exergy_Simulation!A11</f>
+        <f>Flows!A11</f>
         <v>QH</v>
       </c>
       <c r="B11">
-        <f>Exergy_Simulation!B11</f>
-        <v>51870</v>
+        <v>51871</v>
       </c>
       <c r="C11">
-        <f>Exergy_Simulation!C11</f>
-        <v>52594</v>
+        <v>50018</v>
       </c>
       <c r="D11">
-        <f>Exergy_Simulation!D11</f>
-        <v>52139</v>
+        <v>48166</v>
       </c>
       <c r="E11">
-        <f>Exergy_Simulation!E11</f>
-        <v>52889</v>
+        <v>46314</v>
       </c>
       <c r="F11">
-        <f>Exergy_Simulation!F11</f>
-        <v>55815</v>
+        <v>44462</v>
       </c>
       <c r="G11">
-        <f>Exergy_Simulation!G11</f>
-        <v>52103</v>
+        <v>42610</v>
       </c>
       <c r="H11">
-        <f>Exergy_Simulation!H11</f>
-        <v>51854</v>
+        <v>40758</v>
       </c>
       <c r="I11">
-        <f>Exergy_Simulation!I11</f>
-        <v>48167</v>
+        <v>38907</v>
       </c>
       <c r="J11">
-        <f>Exergy_Simulation!J11</f>
-        <v>31035</v>
+        <v>37056</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>Exergy_Simulation!A12</f>
+        <f>Flows!A12</f>
         <v>WT1</v>
       </c>
       <c r="B12">
-        <f>Exergy_Simulation!B12</f>
-        <v>8119</v>
+        <v>8118</v>
       </c>
       <c r="C12">
-        <f>Exergy_Simulation!C12</f>
-        <v>7916</v>
+        <v>7749</v>
       </c>
       <c r="D12">
-        <f>Exergy_Simulation!D12</f>
-        <v>8155</v>
+        <v>7381</v>
       </c>
       <c r="E12">
-        <f>Exergy_Simulation!E12</f>
-        <v>7954</v>
+        <v>7013</v>
       </c>
       <c r="F12">
-        <f>Exergy_Simulation!F12</f>
-        <v>7061</v>
+        <v>6645</v>
       </c>
       <c r="G12">
-        <f>Exergy_Simulation!G12</f>
-        <v>8163</v>
+        <v>6277</v>
       </c>
       <c r="H12">
-        <f>Exergy_Simulation!H12</f>
-        <v>8116</v>
+        <v>5909</v>
       </c>
       <c r="I12">
-        <f>Exergy_Simulation!I12</f>
-        <v>7383</v>
+        <v>5541</v>
       </c>
       <c r="J12">
-        <f>Exergy_Simulation!J12</f>
-        <v>5101</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Exergy_Simulation!A13</f>
+        <f>Flows!A13</f>
         <v>WT2</v>
       </c>
       <c r="B13">
-        <f>Exergy_Simulation!B13</f>
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="C13">
-        <f>Exergy_Simulation!C13</f>
-        <v>2484</v>
+        <v>2639</v>
       </c>
       <c r="D13">
-        <f>Exergy_Simulation!D13</f>
-        <v>2243</v>
+        <v>2998</v>
       </c>
       <c r="E13">
-        <f>Exergy_Simulation!E13</f>
-        <v>2447</v>
+        <v>3358</v>
       </c>
       <c r="F13">
-        <f>Exergy_Simulation!F13</f>
-        <v>3259</v>
+        <v>3717</v>
       </c>
       <c r="G13">
-        <f>Exergy_Simulation!G13</f>
-        <v>2236</v>
+        <v>4076</v>
       </c>
       <c r="H13">
-        <f>Exergy_Simulation!H13</f>
-        <v>2282</v>
+        <v>4435</v>
       </c>
       <c r="I13">
-        <f>Exergy_Simulation!I13</f>
-        <v>2997</v>
+        <v>4794</v>
       </c>
       <c r="J13">
-        <f>Exergy_Simulation!J13</f>
-        <v>5235</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>Exergy_Simulation!A14</f>
+        <f>Flows!A14</f>
         <v>WPC</v>
       </c>
       <c r="B14">
-        <f>Exergy_Simulation!B14</f>
-        <v>3.4260000000000002</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="C14">
-        <f>Exergy_Simulation!C14</f>
-        <v>3.7069999999999999</v>
+        <v>4.6680000000000001</v>
       </c>
       <c r="D14">
-        <f>Exergy_Simulation!D14</f>
-        <v>3.4969999999999999</v>
+        <v>5.3029999999999999</v>
       </c>
       <c r="E14">
-        <f>Exergy_Simulation!E14</f>
-        <v>3.7840000000000007</v>
+        <v>5.9379999999999997</v>
       </c>
       <c r="F14">
-        <f>Exergy_Simulation!F14</f>
-        <v>4.8600000000000003</v>
+        <v>6.5739999999999998</v>
       </c>
       <c r="G14">
-        <f>Exergy_Simulation!G14</f>
-        <v>3.512</v>
+        <v>7.2089999999999996</v>
       </c>
       <c r="H14">
-        <f>Exergy_Simulation!H14</f>
-        <v>4.0380000000000003</v>
+        <v>7.8440000000000003</v>
       </c>
       <c r="I14">
-        <f>Exergy_Simulation!I14</f>
-        <v>5.3029999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="J14">
-        <f>Exergy_Simulation!J14</f>
-        <v>7.8699999999999992</v>
+        <v>9.1150000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>Exergy_Simulation!A15</f>
+        <f>Flows!A15</f>
         <v>WPA</v>
       </c>
       <c r="B15">
-        <f>Exergy_Simulation!B15</f>
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="C15">
-        <f>Exergy_Simulation!C15</f>
-        <v>187.7</v>
+        <v>176.4</v>
       </c>
       <c r="D15">
-        <f>Exergy_Simulation!D15</f>
-        <v>186.8</v>
+        <v>166.9</v>
       </c>
       <c r="E15">
-        <f>Exergy_Simulation!E15</f>
-        <v>188.5</v>
+        <v>157.4</v>
       </c>
       <c r="F15">
-        <f>Exergy_Simulation!F15</f>
-        <v>108.2</v>
+        <v>148</v>
       </c>
       <c r="G15">
-        <f>Exergy_Simulation!G15</f>
-        <v>187.2</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="H15">
-        <f>Exergy_Simulation!H15</f>
-        <v>186</v>
+        <v>129.5</v>
       </c>
       <c r="I15">
-        <f>Exergy_Simulation!I15</f>
-        <v>167</v>
+        <v>120.3</v>
       </c>
       <c r="J15">
-        <f>Exergy_Simulation!J15</f>
-        <v>120.8</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>Exergy_Simulation!A16</f>
+        <f>Flows!A16</f>
         <v>WN</v>
       </c>
       <c r="B16">
-        <f>Exergy_Simulation!B16</f>
         <v>10000</v>
       </c>
       <c r="C16">
-        <f>Exergy_Simulation!C16</f>
         <v>10000</v>
       </c>
       <c r="D16">
-        <f>Exergy_Simulation!D16</f>
         <v>10000</v>
       </c>
       <c r="E16">
-        <f>Exergy_Simulation!E16</f>
         <v>10000</v>
       </c>
       <c r="F16">
-        <f>Exergy_Simulation!F16</f>
         <v>10000</v>
       </c>
       <c r="G16">
-        <f>Exergy_Simulation!G16</f>
         <v>10000</v>
       </c>
       <c r="H16">
-        <f>Exergy_Simulation!H16</f>
         <v>10000</v>
       </c>
       <c r="I16">
-        <f>Exergy_Simulation!I16</f>
         <v>10000</v>
       </c>
       <c r="J16">
-        <f>Exergy_Simulation!J16</f>
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>Exergy_Simulation!A17</f>
+        <f>Flows!A17</f>
         <v>QEVP</v>
       </c>
       <c r="B17">
-        <f>Exergy_Simulation!B17</f>
-        <v>8180</v>
+        <v>8177</v>
       </c>
       <c r="C17">
-        <f>Exergy_Simulation!C17</f>
-        <v>8180</v>
+        <v>7359</v>
       </c>
       <c r="D17">
-        <f>Exergy_Simulation!D17</f>
-        <v>8180</v>
+        <v>6541</v>
       </c>
       <c r="E17">
-        <f>Exergy_Simulation!E17</f>
-        <v>8180</v>
+        <v>5724</v>
       </c>
       <c r="F17">
-        <f>Exergy_Simulation!F17</f>
-        <v>8180</v>
+        <v>4906</v>
       </c>
       <c r="G17">
-        <f>Exergy_Simulation!G17</f>
-        <v>8180</v>
+        <v>4088</v>
       </c>
       <c r="H17">
-        <f>Exergy_Simulation!H17</f>
-        <v>8089</v>
+        <v>3271</v>
       </c>
       <c r="I17">
-        <f>Exergy_Simulation!I17</f>
-        <v>6544</v>
+        <v>2453</v>
       </c>
       <c r="J17">
-        <f>Exergy_Simulation!J17</f>
-        <v>1</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>Exergy_Simulation!A18</f>
+        <f>Flows!A18</f>
         <v>QCND</v>
       </c>
       <c r="B18">
-        <f>Exergy_Simulation!B18</f>
-        <v>367.86</v>
+        <f>B5-B6</f>
+        <v>368.06699999999995</v>
       </c>
       <c r="C18">
-        <f>Exergy_Simulation!C18</f>
-        <v>399.98700000000002</v>
+        <f t="shared" ref="C18:J18" si="0">C5-C6</f>
+        <v>426.04900000000004</v>
       </c>
       <c r="D18">
-        <f>Exergy_Simulation!D18</f>
-        <v>379.839</v>
+        <f t="shared" si="0"/>
+        <v>484.03</v>
       </c>
       <c r="E18">
-        <f>Exergy_Simulation!E18</f>
-        <v>413.154</v>
+        <f t="shared" si="0"/>
+        <v>541.91200000000003</v>
       </c>
       <c r="F18">
-        <f>Exergy_Simulation!F18</f>
-        <v>543.21600000000001</v>
+        <f t="shared" si="0"/>
+        <v>599.89300000000003</v>
       </c>
       <c r="G18">
-        <f>Exergy_Simulation!G18</f>
-        <v>494.86</v>
+        <f t="shared" si="0"/>
+        <v>657.87</v>
       </c>
       <c r="H18">
-        <f>Exergy_Simulation!H18</f>
-        <v>368.5</v>
+        <f t="shared" si="0"/>
+        <v>715.86</v>
       </c>
       <c r="I18">
-        <f>Exergy_Simulation!I18</f>
-        <v>484</v>
+        <f t="shared" si="0"/>
+        <v>773.84</v>
       </c>
       <c r="J18">
-        <f>Exergy_Simulation!J18</f>
-        <v>845.28000000000009</v>
+        <f t="shared" si="0"/>
+        <v>831.82</v>
       </c>
     </row>
   </sheetData>
@@ -3408,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D2B56F-108E-469A-A62A-5D5E59CD123B}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3473,7 @@
         <v>21198</v>
       </c>
       <c r="J2">
-        <v>14645</v>
+        <v>14644</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3510,7 +3505,7 @@
         <v>9018</v>
       </c>
       <c r="J3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3542,7 +3537,7 @@
         <v>3990</v>
       </c>
       <c r="J4">
-        <v>6969</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3574,7 +3569,7 @@
         <v>491.7</v>
       </c>
       <c r="J5">
-        <v>858.7</v>
+        <v>858.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3606,7 +3601,7 @@
         <v>7.6820000000000004</v>
       </c>
       <c r="J6">
-        <v>13.42</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3638,7 +3633,7 @@
         <v>12.23</v>
       </c>
       <c r="J7">
-        <v>21.29</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3670,7 +3665,7 @@
         <v>1413</v>
       </c>
       <c r="J8">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3702,7 +3697,7 @@
         <v>1158</v>
       </c>
       <c r="J9">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3734,7 +3729,7 @@
         <v>1307</v>
       </c>
       <c r="J10">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3766,7 +3761,7 @@
         <v>48167</v>
       </c>
       <c r="J11">
-        <v>31035</v>
+        <v>31042</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3798,7 +3793,7 @@
         <v>7383</v>
       </c>
       <c r="J12">
-        <v>5101</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3830,7 +3825,7 @@
         <v>2997</v>
       </c>
       <c r="J13">
-        <v>5235</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3862,7 +3857,7 @@
         <v>5.3029999999999999</v>
       </c>
       <c r="J14">
-        <v>7.8699999999999992</v>
+        <v>9.2609999999999992</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3958,7 +3953,7 @@
         <v>6544</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3990,7 +3985,8 @@
         <v>484</v>
       </c>
       <c r="J18">
-        <v>845.28000000000009</v>
+        <f>J5-J6</f>
+        <v>845.21</v>
       </c>
     </row>
   </sheetData>
@@ -3999,614 +3995,408 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C2410C-497A-43FE-B032-C941B808DB3F}">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D378CF-0D39-40B6-B8E2-446213EC00FD}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Flows!A2</f>
-        <v>B1</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
       </c>
       <c r="B2">
-        <v>13004</v>
+        <v>23312</v>
       </c>
       <c r="C2">
-        <v>13796</v>
+        <v>23672</v>
       </c>
       <c r="D2">
-        <v>14853</v>
+        <v>14645</v>
       </c>
       <c r="E2">
-        <v>15910</v>
+        <v>18024</v>
       </c>
       <c r="F2">
-        <v>16967</v>
+        <v>23388</v>
       </c>
       <c r="G2">
-        <v>18024</v>
+        <v>23437</v>
       </c>
       <c r="H2">
-        <v>19082</v>
-      </c>
-      <c r="I2">
-        <v>20139</v>
-      </c>
-      <c r="J2">
-        <v>21197</v>
-      </c>
-      <c r="K2">
-        <v>22255</v>
-      </c>
-      <c r="L2">
-        <v>23312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Flows!A3</f>
-        <v>B2</v>
+        <v>23841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11272</v>
       </c>
       <c r="C3">
-        <v>1127</v>
+        <v>11270</v>
       </c>
       <c r="D3">
-        <v>2254</v>
+        <v>2017</v>
       </c>
       <c r="E3">
-        <v>3382</v>
+        <v>5636</v>
       </c>
       <c r="F3">
-        <v>4509</v>
+        <v>11280</v>
       </c>
       <c r="G3">
-        <v>5636</v>
+        <v>11272</v>
       </c>
       <c r="H3">
-        <v>6763</v>
-      </c>
-      <c r="I3">
-        <v>7890</v>
-      </c>
-      <c r="J3">
-        <v>9018</v>
-      </c>
-      <c r="K3">
-        <v>10145</v>
-      </c>
-      <c r="L3">
-        <v>11272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Flows!A4</f>
-        <v>B3</v>
+        <v>11836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>7979</v>
+        <v>3033</v>
       </c>
       <c r="C4">
-        <v>7338</v>
+        <v>3375</v>
       </c>
       <c r="D4">
-        <v>6860</v>
+        <v>6969</v>
       </c>
       <c r="E4">
-        <v>6381</v>
+        <v>5424</v>
       </c>
       <c r="F4">
-        <v>5903</v>
+        <v>4388</v>
       </c>
       <c r="G4">
-        <v>5424</v>
+        <v>3109</v>
       </c>
       <c r="H4">
-        <v>4946</v>
-      </c>
-      <c r="I4">
-        <v>4468</v>
-      </c>
-      <c r="J4">
-        <v>3989</v>
-      </c>
-      <c r="K4">
-        <v>3511</v>
-      </c>
-      <c r="L4">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Flows!A5</f>
-        <v>B4</v>
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>994.3</v>
+        <v>373.7</v>
       </c>
       <c r="C5">
-        <v>904.2</v>
+        <v>419.6</v>
       </c>
       <c r="D5">
-        <v>845.3</v>
+        <v>858.7</v>
       </c>
       <c r="E5">
-        <v>786.3</v>
+        <v>668.4</v>
       </c>
       <c r="F5">
-        <v>727.3</v>
+        <v>533.1</v>
       </c>
       <c r="G5">
-        <v>668.4</v>
+        <v>505.6</v>
       </c>
       <c r="H5">
-        <v>609.4</v>
-      </c>
-      <c r="I5">
-        <v>550.5</v>
-      </c>
-      <c r="J5">
-        <v>491.6</v>
-      </c>
-      <c r="K5">
-        <v>432.7</v>
-      </c>
-      <c r="L5">
-        <v>373.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>Flows!A6</f>
-        <v>B5</v>
+        <v>344.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>15.36</v>
+        <v>5.84</v>
       </c>
       <c r="C6">
-        <v>14.13</v>
+        <v>6.4459999999999997</v>
       </c>
       <c r="D6">
-        <v>13.21</v>
+        <v>13.42</v>
       </c>
       <c r="E6">
-        <v>12.29</v>
+        <v>10.44</v>
       </c>
       <c r="F6">
-        <v>11.36</v>
+        <v>8.1</v>
       </c>
       <c r="G6">
-        <v>10.44</v>
+        <v>10.74</v>
       </c>
       <c r="H6">
-        <v>9.5229999999999997</v>
-      </c>
-      <c r="I6">
-        <v>8.6020000000000003</v>
-      </c>
-      <c r="J6">
-        <v>7.681</v>
-      </c>
-      <c r="K6">
-        <v>6.76</v>
-      </c>
-      <c r="L6">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>Flows!A7</f>
-        <v>B6</v>
+        <v>5.3789999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>24.38</v>
+        <v>9.266</v>
       </c>
       <c r="C7">
-        <v>22.42</v>
+        <v>10.23</v>
       </c>
       <c r="D7">
-        <v>20.96</v>
+        <v>21.29</v>
       </c>
       <c r="E7">
-        <v>19.489999999999998</v>
+        <v>16.57</v>
       </c>
       <c r="F7">
-        <v>18.03</v>
+        <v>12.85</v>
       </c>
       <c r="G7">
-        <v>16.57</v>
+        <v>14.25</v>
       </c>
       <c r="H7">
-        <v>15.11</v>
-      </c>
-      <c r="I7">
-        <v>13.65</v>
-      </c>
-      <c r="J7">
-        <v>12.19</v>
-      </c>
-      <c r="K7">
-        <v>10.73</v>
-      </c>
-      <c r="L7">
-        <v>9.266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>Flows!A8</f>
-        <v>B7</v>
+        <v>8.5359999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="C8">
-        <v>176.7</v>
+        <v>1752</v>
       </c>
       <c r="D8">
-        <v>353.3</v>
+        <v>2017</v>
       </c>
       <c r="E8">
-        <v>530</v>
+        <v>883.3</v>
       </c>
       <c r="F8">
-        <v>706.7</v>
+        <v>1695</v>
       </c>
       <c r="G8">
-        <v>883.3</v>
+        <v>1767</v>
       </c>
       <c r="H8">
-        <v>1060</v>
-      </c>
-      <c r="I8">
-        <v>1237</v>
-      </c>
-      <c r="J8">
-        <v>1413</v>
-      </c>
-      <c r="K8">
-        <v>1590</v>
-      </c>
-      <c r="L8">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>Flows!A9</f>
-        <v>B8</v>
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>24.38</v>
+        <v>1550</v>
       </c>
       <c r="C9">
-        <v>88.76</v>
+        <v>1518</v>
       </c>
       <c r="D9">
-        <v>189</v>
+        <v>1408</v>
       </c>
       <c r="E9">
-        <v>314.89999999999998</v>
+        <v>619.4</v>
       </c>
       <c r="F9">
-        <v>459.8</v>
+        <v>1417</v>
       </c>
       <c r="G9">
-        <v>619.4</v>
+        <v>1570</v>
       </c>
       <c r="H9">
-        <v>790.4</v>
-      </c>
-      <c r="I9">
-        <v>970.5</v>
-      </c>
-      <c r="J9">
-        <v>1158</v>
-      </c>
-      <c r="K9">
-        <v>1352</v>
-      </c>
-      <c r="L9">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>Flows!A10</f>
-        <v>B9</v>
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>106.6</v>
+        <v>1717</v>
       </c>
       <c r="C10">
-        <v>177.6</v>
+        <v>1687</v>
       </c>
       <c r="D10">
-        <v>286.2</v>
+        <v>1518</v>
       </c>
       <c r="E10">
-        <v>420.6</v>
+        <v>742.3</v>
       </c>
       <c r="F10">
-        <v>574.1</v>
+        <v>1513</v>
       </c>
       <c r="G10">
-        <v>742.3</v>
+        <v>1738</v>
       </c>
       <c r="H10">
-        <v>922</v>
-      </c>
-      <c r="I10">
-        <v>1111</v>
-      </c>
-      <c r="J10">
-        <v>1307</v>
-      </c>
-      <c r="K10">
-        <v>1510</v>
-      </c>
-      <c r="L10">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Flows!A11</f>
-        <v>QH</v>
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>34042</v>
+        <v>24531</v>
       </c>
       <c r="C11">
-        <v>35201</v>
+        <v>24983</v>
       </c>
       <c r="D11">
-        <v>37053</v>
+        <v>14873</v>
       </c>
       <c r="E11">
-        <v>38904</v>
+        <v>19778</v>
       </c>
       <c r="F11">
-        <v>40756</v>
+        <v>25870</v>
       </c>
       <c r="G11">
-        <v>42608</v>
+        <v>24647</v>
       </c>
       <c r="H11">
-        <v>44460</v>
-      </c>
-      <c r="I11">
-        <v>46313</v>
-      </c>
-      <c r="J11">
-        <v>48165</v>
-      </c>
-      <c r="K11">
-        <v>50018</v>
-      </c>
-      <c r="L11">
-        <v>51870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Flows!A12</f>
-        <v>WT1</v>
+        <v>25002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
       </c>
       <c r="B12">
-        <v>4529</v>
+        <v>8119</v>
       </c>
       <c r="C12">
-        <v>4805</v>
+        <v>7954</v>
       </c>
       <c r="D12">
-        <v>5173</v>
+        <v>5101</v>
       </c>
       <c r="E12">
-        <v>5541</v>
+        <v>6278</v>
       </c>
       <c r="F12">
-        <v>5909</v>
+        <v>7016</v>
       </c>
       <c r="G12">
-        <v>6278</v>
+        <v>8163</v>
       </c>
       <c r="H12">
-        <v>6646</v>
-      </c>
-      <c r="I12">
-        <v>7014</v>
-      </c>
-      <c r="J12">
-        <v>7382</v>
-      </c>
-      <c r="K12">
-        <v>7751</v>
-      </c>
-      <c r="L12">
-        <v>8119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Flows!A13</f>
-        <v>WT2</v>
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
       </c>
       <c r="B13">
-        <v>5782</v>
+        <v>2278</v>
       </c>
       <c r="C13">
-        <v>5512</v>
+        <v>2447</v>
       </c>
       <c r="D13">
-        <v>5153</v>
+        <v>5235</v>
       </c>
       <c r="E13">
-        <v>4793</v>
+        <v>4074</v>
       </c>
       <c r="F13">
-        <v>4434</v>
+        <v>3303</v>
       </c>
       <c r="G13">
-        <v>4074</v>
+        <v>2236</v>
       </c>
       <c r="H13">
-        <v>3715</v>
-      </c>
-      <c r="I13">
-        <v>3356</v>
-      </c>
-      <c r="J13">
-        <v>2997</v>
-      </c>
-      <c r="K13">
-        <v>2637</v>
-      </c>
-      <c r="L13">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Flows!A14</f>
-        <v>WPC</v>
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:L14" si="0">B7-B6</f>
-        <v>9.02</v>
+        <v>3.4260000000000002</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>8.2900000000000009</v>
+        <v>3.782</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>7.8719999999999999</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>6.6700000000000017</v>
+        <v>4.75</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>6.1300000000000008</v>
+        <v>3.512</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>5.5869999999999997</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>5.048</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>4.5089999999999995</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>3.9700000000000006</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>3.4260000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Flows!A15</f>
-        <v>WPA</v>
+        <v>3.1560000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>95.81</v>
+        <v>186.1</v>
       </c>
       <c r="C15">
-        <v>102.5</v>
+        <v>188.5</v>
       </c>
       <c r="D15">
-        <v>111.4</v>
+        <v>120.8</v>
       </c>
       <c r="E15">
-        <v>120.4</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="F15">
-        <v>129.5</v>
+        <v>107.6</v>
       </c>
       <c r="G15">
-        <v>138.80000000000001</v>
+        <v>187.2</v>
       </c>
       <c r="H15">
-        <v>148.1</v>
-      </c>
-      <c r="I15">
-        <v>157.5</v>
-      </c>
-      <c r="J15">
-        <v>167</v>
-      </c>
-      <c r="K15">
-        <v>176.5</v>
-      </c>
-      <c r="L15">
-        <v>186.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Flows!A16</f>
-        <v>WN</v>
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -4629,106 +4419,57 @@
       <c r="H16">
         <v>10000</v>
       </c>
-      <c r="I16">
-        <v>10000</v>
-      </c>
-      <c r="J16">
-        <v>10000</v>
-      </c>
-      <c r="K16">
-        <v>10000</v>
-      </c>
-      <c r="L16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Flows!A17</f>
-        <v>QEVP</v>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
       </c>
       <c r="B17">
+        <v>8180</v>
+      </c>
+      <c r="C17">
+        <v>8180</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>818</v>
-      </c>
-      <c r="D17">
-        <v>1636</v>
-      </c>
       <c r="E17">
-        <v>2454</v>
+        <v>4090</v>
       </c>
       <c r="F17">
-        <v>3272</v>
+        <v>8180</v>
       </c>
       <c r="G17">
-        <v>4090</v>
+        <v>8180</v>
       </c>
       <c r="H17">
-        <v>4908</v>
-      </c>
-      <c r="I17">
-        <v>5726</v>
-      </c>
-      <c r="J17">
-        <v>6544</v>
-      </c>
-      <c r="K17">
-        <v>7362</v>
-      </c>
-      <c r="L17">
-        <v>8180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Flows!A18</f>
-        <v>QCND</v>
+        <v>8589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:L18" si="1">B5-B6</f>
-        <v>978.93999999999994</v>
+        <v>367.9</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>890.07</v>
+        <v>413.1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>832.08999999999992</v>
+        <v>845.3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>774.01</v>
+        <v>657.9</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>715.93999999999994</v>
+        <v>525</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>657.95999999999992</v>
+        <v>494.9</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>599.87699999999995</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>541.89800000000002</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>483.91900000000004</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>425.94</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>367.86</v>
+        <v>338.9</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/kotas/kotas_model.xlsx
+++ b/Examples/kotas/kotas_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\kotas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD5C19-CAC9-4113-9E10-8A543DE3EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51632564-892A-4755-80BD-F1E069D8F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Exergy_HRSG" sheetId="12" r:id="rId9"/>
     <sheet name="ExergyB_Table" sheetId="18" r:id="rId10"/>
     <sheet name="ExergyH_Table" sheetId="13" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="21" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$5</definedName>
@@ -2156,6 +2157,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E23DD-48BF-471F-858A-4B55FBA6ABB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2">
@@ -3226,8 +3239,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,7 +3270,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -3271,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -3327,7 +3340,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -3403,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D2B56F-108E-469A-A62A-5D5E59CD123B}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
